--- a/data/hero.xlsx
+++ b/data/hero.xlsx
@@ -1314,7 +1314,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1421,7 +1421,7 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -1447,7 +1447,7 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -1499,7 +1499,7 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1525,7 +1525,7 @@
         <v>28</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -1551,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -1577,7 +1577,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -1629,7 +1629,7 @@
         <v>36</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -1655,7 +1655,7 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -1684,7 +1684,7 @@
         <v>41</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>

--- a/data/hero.xlsx
+++ b/data/hero.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -56,6 +56,21 @@
     <t>对应的碎片道具id</t>
   </si>
   <si>
+    <t>英雄技能</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>攻速</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -89,66 +104,111 @@
     <t>item</t>
   </si>
   <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>defense</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
     <t>刘备</t>
   </si>
   <si>
     <t>心怀匡复汉室宏志，以仁德广纳贤才，深得民心</t>
   </si>
   <si>
+    <t>100101;100102;100103;100104</t>
+  </si>
+  <si>
     <t>关羽</t>
   </si>
   <si>
     <t>面如重枣威风凛凛，武艺超群，忠肝义胆，威震华夏</t>
   </si>
   <si>
+    <t>100201;100202;100203;100204</t>
+  </si>
+  <si>
     <t>诸葛亮</t>
   </si>
   <si>
     <t>羽扇纶巾智谋卓绝，未出茅庐已知天下三分</t>
   </si>
   <si>
+    <t>100301;100302;100303;100304</t>
+  </si>
+  <si>
     <t>赵云</t>
   </si>
   <si>
     <t>白马银枪身姿矫健，长坂坡单骑救主，勇冠三军</t>
   </si>
   <si>
+    <t>100401;100402;100403;100404</t>
+  </si>
+  <si>
     <t>吕布</t>
   </si>
   <si>
     <t>头戴三叉束发紫金冠，武艺高强，却反复无常</t>
   </si>
   <si>
+    <t>100501;100502;100503;100504</t>
+  </si>
+  <si>
     <t>许禇</t>
   </si>
   <si>
     <t>虎背熊腰力大无穷，赤膊斗马超，忠勇护主</t>
   </si>
   <si>
+    <t>100601;100602;100603;100604</t>
+  </si>
+  <si>
     <t>曹操</t>
   </si>
   <si>
     <t>乱世枭雄谋略过人，挟天子以令诸侯，野心勃勃</t>
   </si>
   <si>
+    <t>100701;100702;100703;100704</t>
+  </si>
+  <si>
     <t>张飞</t>
   </si>
   <si>
     <t>豹头环眼声若巨雷，勇猛直率，当阳桥喝退曹军</t>
   </si>
   <si>
+    <t>100801;100802;100803;100804</t>
+  </si>
+  <si>
     <t>貂蝉</t>
   </si>
   <si>
     <t>倾国倾城貌若天仙，以智谋周旋，改变局势</t>
   </si>
   <si>
+    <t>100901;100902;100903;100904</t>
+  </si>
+  <si>
     <t>黄忠</t>
   </si>
   <si>
     <t>老将黄忠箭术绝伦，定军山一战，老当益壮显威名</t>
   </si>
   <si>
+    <t>101001;101002;101003;101004</t>
+  </si>
+  <si>
     <t>END</t>
   </si>
   <si>
@@ -156,6 +216,9 @@
   </si>
   <si>
     <t>白面书生智谋深藏，火烧连营大破蜀军，一战成名</t>
+  </si>
+  <si>
+    <t>101101;101102;101103;101104</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1326,10 +1389,11 @@
     <col min="6" max="6" width="18.5416666666667" customWidth="1"/>
     <col min="7" max="7" width="8.875" customWidth="1"/>
     <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="40.875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1357,74 +1421,119 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:14">
       <c r="B4">
         <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>1001</v>
@@ -1438,19 +1547,34 @@
       <c r="I4">
         <v>1001</v>
       </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>1002</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>1002</v>
@@ -1464,19 +1588,34 @@
       <c r="I5">
         <v>1002</v>
       </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <v>200</v>
+      </c>
+      <c r="M5">
+        <v>200</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>1003</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>1003</v>
@@ -1490,19 +1629,34 @@
       <c r="I6">
         <v>1003</v>
       </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
+        <v>80</v>
+      </c>
+      <c r="M6">
+        <v>80</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>1004</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>1004</v>
@@ -1516,19 +1670,34 @@
       <c r="I7">
         <v>1004</v>
       </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7">
+        <v>800</v>
+      </c>
+      <c r="L7">
+        <v>180</v>
+      </c>
+      <c r="M7">
+        <v>180</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>1005</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>1005</v>
@@ -1542,19 +1711,34 @@
       <c r="I8">
         <v>1005</v>
       </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
+      <c r="M8">
+        <v>250</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>1006</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F9">
         <v>1006</v>
@@ -1568,19 +1752,34 @@
       <c r="I9">
         <v>1006</v>
       </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9">
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <v>180</v>
+      </c>
+      <c r="M9">
+        <v>180</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>1007</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>1007</v>
@@ -1594,19 +1793,34 @@
       <c r="I10">
         <v>1007</v>
       </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>500</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>1008</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>1008</v>
@@ -1620,19 +1834,34 @@
       <c r="I11">
         <v>1008</v>
       </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11">
+        <v>800</v>
+      </c>
+      <c r="L11">
+        <v>180</v>
+      </c>
+      <c r="M11">
+        <v>180</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>1009</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>1009</v>
@@ -1646,19 +1875,34 @@
       <c r="I12">
         <v>1009</v>
       </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12">
+        <v>400</v>
+      </c>
+      <c r="L12">
+        <v>70</v>
+      </c>
+      <c r="M12">
+        <v>70</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>1010</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>1010</v>
@@ -1672,22 +1916,37 @@
       <c r="I13">
         <v>1010</v>
       </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13">
+        <v>800</v>
+      </c>
+      <c r="L13">
+        <v>170</v>
+      </c>
+      <c r="M13">
+        <v>170</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>1011</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>1011</v>
@@ -1700,6 +1959,21 @@
       </c>
       <c r="I14">
         <v>1011</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14">
+        <v>500</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/hero.xlsx
+++ b/data/hero.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -128,22 +128,103 @@
     <t>100101;100102;100103;100104</t>
   </si>
   <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>乱世枭雄谋略过人，挟天子以令诸侯，野心勃勃</t>
+  </si>
+  <si>
+    <t>100201;100202;100203;100204</t>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>承父兄江东大业，善用贤能之士，据守江东，稳如泰山</t>
+  </si>
+  <si>
+    <t>100301;100302;100303;100304</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>身名门 “四世三公”，凭借家族威望广聚豪杰，于河北之地崛起，雄踞一方</t>
+  </si>
+  <si>
+    <t>100401;100402;100403;100404</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>头戴三叉束发紫金冠，武艺高强，却反复无常</t>
+  </si>
+  <si>
+    <t>100501;100502;100503;100504</t>
+  </si>
+  <si>
+    <t>许禇</t>
+  </si>
+  <si>
+    <t>虎背熊腰力大无穷，赤膊斗马超，忠勇护主</t>
+  </si>
+  <si>
+    <t>100601;100602;100603;100604</t>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+  </si>
+  <si>
+    <t>羽扇纶巾智谋卓绝，未出茅庐已知天下三分</t>
+  </si>
+  <si>
+    <t>100701;100702;100703;100704</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>豹头环眼声若巨雷，勇猛直率，当阳桥喝退曹军</t>
+  </si>
+  <si>
+    <t>100801;100802;100803;100804</t>
+  </si>
+  <si>
+    <t>貂蝉</t>
+  </si>
+  <si>
+    <t>倾国倾城貌若天仙，以智谋周旋，改变局势</t>
+  </si>
+  <si>
+    <t>100901;100902;100903;100904</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>老将黄忠箭术绝伦，定军山一战，老当益壮显威名</t>
+  </si>
+  <si>
+    <t>101001;101002;101003;101004</t>
+  </si>
+  <si>
     <t>关羽</t>
   </si>
   <si>
     <t>面如重枣威风凛凛，武艺超群，忠肝义胆，威震华夏</t>
   </si>
   <si>
-    <t>100201;100202;100203;100204</t>
-  </si>
-  <si>
-    <t>诸葛亮</t>
-  </si>
-  <si>
-    <t>羽扇纶巾智谋卓绝，未出茅庐已知天下三分</t>
-  </si>
-  <si>
-    <t>100301;100302;100303;100304</t>
+    <t>陆逊</t>
+  </si>
+  <si>
+    <t>白面书生智谋深藏，火烧连营大破蜀军，一战成名</t>
+  </si>
+  <si>
+    <t>101201;101202;101203;101204</t>
+  </si>
+  <si>
+    <t>END</t>
   </si>
   <si>
     <t>赵云</t>
@@ -152,73 +233,7 @@
     <t>白马银枪身姿矫健，长坂坡单骑救主，勇冠三军</t>
   </si>
   <si>
-    <t>100401;100402;100403;100404</t>
-  </si>
-  <si>
-    <t>吕布</t>
-  </si>
-  <si>
-    <t>头戴三叉束发紫金冠，武艺高强，却反复无常</t>
-  </si>
-  <si>
-    <t>100501;100502;100503;100504</t>
-  </si>
-  <si>
-    <t>许禇</t>
-  </si>
-  <si>
-    <t>虎背熊腰力大无穷，赤膊斗马超，忠勇护主</t>
-  </si>
-  <si>
-    <t>100601;100602;100603;100604</t>
-  </si>
-  <si>
-    <t>曹操</t>
-  </si>
-  <si>
-    <t>乱世枭雄谋略过人，挟天子以令诸侯，野心勃勃</t>
-  </si>
-  <si>
-    <t>100701;100702;100703;100704</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>豹头环眼声若巨雷，勇猛直率，当阳桥喝退曹军</t>
-  </si>
-  <si>
-    <t>100801;100802;100803;100804</t>
-  </si>
-  <si>
-    <t>貂蝉</t>
-  </si>
-  <si>
-    <t>倾国倾城貌若天仙，以智谋周旋，改变局势</t>
-  </si>
-  <si>
-    <t>100901;100902;100903;100904</t>
-  </si>
-  <si>
-    <t>黄忠</t>
-  </si>
-  <si>
-    <t>老将黄忠箭术绝伦，定军山一战，老当益壮显威名</t>
-  </si>
-  <si>
-    <t>101001;101002;101003;101004</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>陆逊</t>
-  </si>
-  <si>
-    <t>白面书生智谋深藏，火烧连营大破蜀军，一战成名</t>
-  </si>
-  <si>
-    <t>101101;101102;101103;101104</t>
+    <t>101301;101302;101303;101304</t>
   </si>
 </sst>
 </file>
@@ -231,13 +246,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -704,141 +725,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1374,10 +1398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1385,12 +1409,12 @@
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="11.8166666666667" customWidth="1"/>
     <col min="4" max="4" width="8.54166666666667" customWidth="1"/>
-    <col min="5" max="5" width="38.8166666666667" customWidth="1"/>
+    <col min="5" max="5" width="70.25" customWidth="1"/>
     <col min="6" max="6" width="18.5416666666667" customWidth="1"/>
     <col min="7" max="7" width="8.875" customWidth="1"/>
     <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="10" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1522,7 +1546,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -1530,7 +1554,7 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
@@ -1539,10 +1563,10 @@
         <v>1001</v>
       </c>
       <c r="G4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1001</v>
@@ -1550,20 +1574,8 @@
       <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="K4">
-        <v>500</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
-      </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>1002</v>
       </c>
@@ -1571,7 +1583,7 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -1580,10 +1592,10 @@
         <v>1002</v>
       </c>
       <c r="G5">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1002</v>
@@ -1591,20 +1603,8 @@
       <c r="J5" t="s">
         <v>35</v>
       </c>
-      <c r="K5">
-        <v>1000</v>
-      </c>
-      <c r="L5">
-        <v>200</v>
-      </c>
-      <c r="M5">
-        <v>200</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>1003</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -1621,10 +1621,10 @@
         <v>1003</v>
       </c>
       <c r="G6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1003</v>
@@ -1632,58 +1632,34 @@
       <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="K6">
-        <v>500</v>
-      </c>
-      <c r="L6">
-        <v>80</v>
-      </c>
-      <c r="M6">
-        <v>80</v>
-      </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" ht="17.25" spans="2:10">
       <c r="B7">
         <v>1004</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F7">
         <v>1004</v>
       </c>
       <c r="G7">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1004</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
-      </c>
-      <c r="K7">
-        <v>800</v>
-      </c>
-      <c r="L7">
-        <v>180</v>
-      </c>
-      <c r="M7">
-        <v>180</v>
-      </c>
-      <c r="N7">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:14">
@@ -1788,7 +1764,7 @@
         <v>500</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10">
         <v>1007</v>
@@ -1800,10 +1776,10 @@
         <v>500</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -1932,21 +1908,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>1011</v>
       </c>
       <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>61</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
       </c>
       <c r="F14">
         <v>1011</v>
@@ -1955,24 +1928,109 @@
         <v>500</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I14">
         <v>1011</v>
       </c>
       <c r="J14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14">
+        <v>1000</v>
+      </c>
+      <c r="L14">
+        <v>200</v>
+      </c>
+      <c r="M14">
+        <v>200</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15">
+        <v>1012</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
         <v>63</v>
       </c>
-      <c r="K14">
+      <c r="F15">
+        <v>1012</v>
+      </c>
+      <c r="G15">
         <v>500</v>
       </c>
-      <c r="L14">
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>1012</v>
+      </c>
+      <c r="J15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15">
+        <v>500</v>
+      </c>
+      <c r="L15">
         <v>100</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>100</v>
       </c>
-      <c r="N14">
+      <c r="N15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:14">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <v>1013</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>1013</v>
+      </c>
+      <c r="G16">
+        <v>500</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>1013</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16">
+        <v>800</v>
+      </c>
+      <c r="L16">
+        <v>180</v>
+      </c>
+      <c r="M16">
+        <v>180</v>
+      </c>
+      <c r="N16">
         <v>10</v>
       </c>
     </row>

--- a/data/hero.xlsx
+++ b/data/hero.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -41,6 +41,9 @@
     <t>品质</t>
   </si>
   <si>
+    <t>阵营</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
   </si>
   <si>
     <t>quality</t>
+  </si>
+  <si>
+    <t>camp</t>
   </si>
   <si>
     <t>tips</t>
@@ -1398,10 +1404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1409,15 +1415,16 @@
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="11.8166666666667" customWidth="1"/>
     <col min="4" max="4" width="8.54166666666667" customWidth="1"/>
-    <col min="5" max="5" width="70.25" customWidth="1"/>
-    <col min="6" max="6" width="18.5416666666667" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="7.375" customWidth="1"/>
-    <col min="10" max="10" width="49.25" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="70.25" customWidth="1"/>
+    <col min="7" max="7" width="18.5416666666667" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="11" max="11" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1460,582 +1467,630 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:15">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:11">
       <c r="B4">
         <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4">
         <v>1001</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>1001</v>
       </c>
-      <c r="J4" t="s">
-        <v>32</v>
+      <c r="K4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:11">
       <c r="B5">
         <v>1002</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
         <v>1002</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1002</v>
       </c>
-      <c r="J5" t="s">
-        <v>35</v>
+      <c r="K5" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:11">
       <c r="B6">
         <v>1003</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6">
         <v>1003</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>1003</v>
       </c>
-      <c r="J6" t="s">
-        <v>38</v>
+      <c r="K6" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="2:10">
+    <row r="7" ht="17.25" spans="2:11">
       <c r="B7">
         <v>1004</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
         <v>1004</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>1004</v>
       </c>
-      <c r="J7" t="s">
-        <v>41</v>
+      <c r="K7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:15">
       <c r="B8">
         <v>1005</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8">
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
         <v>1005</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>500</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>14</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1005</v>
       </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8">
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8">
         <v>1000</v>
-      </c>
-      <c r="L8">
-        <v>250</v>
       </c>
       <c r="M8">
         <v>250</v>
       </c>
       <c r="N8">
+        <v>250</v>
+      </c>
+      <c r="O8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:15">
       <c r="B9">
         <v>1006</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
         <v>1006</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>500</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>15</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1006</v>
       </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9">
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9">
         <v>1000</v>
-      </c>
-      <c r="L9">
-        <v>180</v>
       </c>
       <c r="M9">
         <v>180</v>
       </c>
       <c r="N9">
+        <v>180</v>
+      </c>
+      <c r="O9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:15">
       <c r="B10">
         <v>1007</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10">
         <v>1007</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>500</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>12</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1007</v>
       </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10">
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10">
         <v>500</v>
-      </c>
-      <c r="L10">
-        <v>80</v>
       </c>
       <c r="M10">
         <v>80</v>
       </c>
       <c r="N10">
+        <v>80</v>
+      </c>
+      <c r="O10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:15">
       <c r="B11">
         <v>1008</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11">
         <v>1008</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>500</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>17</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1008</v>
       </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11">
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11">
         <v>800</v>
-      </c>
-      <c r="L11">
-        <v>180</v>
       </c>
       <c r="M11">
         <v>180</v>
       </c>
       <c r="N11">
+        <v>180</v>
+      </c>
+      <c r="O11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:15">
       <c r="B12">
         <v>1009</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12">
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12">
         <v>1009</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>500</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>18</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1009</v>
       </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12">
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12">
         <v>400</v>
-      </c>
-      <c r="L12">
-        <v>70</v>
       </c>
       <c r="M12">
         <v>70</v>
       </c>
       <c r="N12">
+        <v>70</v>
+      </c>
+      <c r="O12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:15">
       <c r="B13">
         <v>1010</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13">
         <v>1010</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>500</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>19</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1010</v>
       </c>
-      <c r="J13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13">
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13">
         <v>800</v>
-      </c>
-      <c r="L13">
-        <v>170</v>
       </c>
       <c r="M13">
         <v>170</v>
       </c>
       <c r="N13">
+        <v>170</v>
+      </c>
+      <c r="O13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:15">
       <c r="B14">
         <v>1011</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14">
+        <v>1011</v>
+      </c>
+      <c r="H14">
+        <v>500</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>1011</v>
+      </c>
+      <c r="K14" t="s">
         <v>61</v>
       </c>
-      <c r="F14">
-        <v>1011</v>
-      </c>
-      <c r="G14">
-        <v>500</v>
-      </c>
-      <c r="H14">
-        <v>11</v>
-      </c>
-      <c r="I14">
-        <v>1011</v>
-      </c>
-      <c r="J14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14">
+      <c r="L14">
         <v>1000</v>
-      </c>
-      <c r="L14">
-        <v>200</v>
       </c>
       <c r="M14">
         <v>200</v>
       </c>
       <c r="N14">
+        <v>200</v>
+      </c>
+      <c r="O14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:15">
       <c r="B15">
         <v>1012</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15">
         <v>1012</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>500</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>20</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1012</v>
       </c>
-      <c r="J15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15">
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15">
         <v>500</v>
-      </c>
-      <c r="L15">
-        <v>100</v>
       </c>
       <c r="M15">
         <v>100</v>
       </c>
       <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:14">
+    <row r="16" customFormat="1" spans="1:15">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>1013</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16">
         <v>1013</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>500</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>13</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1013</v>
       </c>
-      <c r="J16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16">
+      <c r="K16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16">
         <v>800</v>
-      </c>
-      <c r="L16">
-        <v>180</v>
       </c>
       <c r="M16">
         <v>180</v>
       </c>
       <c r="N16">
+        <v>180</v>
+      </c>
+      <c r="O16">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B20:I24">
+  <sortState ref="B20:J24">
     <sortCondition ref="B20"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
